--- a/Week 1 SWP301 Group 2.xlsx
+++ b/Week 1 SWP301 Group 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhtu/Documents/Uni/SEMESTER5/SWP391/Koi-Veterinary-Service-Center/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE70EE2-483B-644A-BD91-6420BD04F75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF2ADBF-64FC-E843-8E8F-6049E9F090ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="500" windowWidth="28220" windowHeight="15900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -391,6 +391,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -399,36 +413,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -453,13 +451,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>172031</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>524601</xdr:colOff>
+      <xdr:colOff>696632</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>59223</xdr:rowOff>
     </xdr:to>
@@ -484,8 +482,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9105326" cy="5323472"/>
+          <a:off x="172031" y="0"/>
+          <a:ext cx="9126195" cy="5402331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,7 +698,7 @@
   </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="114" workbookViewId="0"/>
+    <sheetView zoomScale="114" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -721,58 +719,58 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
@@ -781,151 +779,151 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
     </row>
     <row r="33" spans="1:3" ht="1.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -957,68 +955,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+      <c r="A4" s="7">
         <f>SUM(A3+1)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="A5" s="7">
         <f t="shared" ref="A5:A7" si="0">SUM(A4+1)</f>
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1045,88 +1043,88 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="A5" s="7">
         <f>SUM(A4+1)</f>
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="A6" s="7">
         <f t="shared" ref="A6:A10" si="0">SUM(A5+1)</f>
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
+      <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1142,7 +1140,7 @@
   <dimension ref="A4:C11"/>
   <sheetViews>
     <sheetView zoomScale="248" zoomScaleNormal="248" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1153,70 +1151,66 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="A6" s="7">
         <f>SUM(A5+1)</f>
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="A7" s="7">
         <f>SUM(A6+1)</f>
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1232,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282D9CA7-B91B-DD4C-8C22-43727ADE9F40}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="251" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1242,7 +1236,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8"/>
+      <c r="A1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
